--- a/Recortes/final_db.xlsx
+++ b/Recortes/final_db.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayur\OneDrive\Documentos\AULAS_SEXTO_SEMESTRE\RedesSoc\redesoc-conteiner\notebooks\Projeto-RedesSoc\Projeto-rascunho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Martinelli\redesoc-conteiner\notebooks\Projeto-RedesSoc\Recortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFCEADF-F556-49F2-928C-D66498D21C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D88A22F-486A-4E39-8EBF-48040D926ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -785,13 +798,22 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>idh_2008_2012</t>
+  </si>
+  <si>
+    <t>idh_2001_2003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,6 +825,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -840,9 +868,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1147,18 +1182,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE226"/>
+  <dimension ref="A1:AG226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.44140625" customWidth="1"/>
+    <col min="33" max="33" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1286,14 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1344,8 +1387,16 @@
       <c r="AE2">
         <v>0</v>
       </c>
+      <c r="AF2" s="3">
+        <f>AVERAGE(L2:P2)</f>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AG2" s="3">
+        <f>AVERAGE(E2:G2)</f>
+        <v>0.84566666666666668</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1439,8 +1490,16 @@
       <c r="AE3">
         <v>0</v>
       </c>
+      <c r="AF3" s="3">
+        <f t="shared" ref="AF3:AF66" si="0">AVERAGE(L3:P3)</f>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="AG3" s="3">
+        <f t="shared" ref="AG3:AG66" si="1">AVERAGE(E3:G3)</f>
+        <v>0.92200000000000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1534,8 +1593,16 @@
       <c r="AE4">
         <v>0</v>
       </c>
+      <c r="AF4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AG4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.37666666666666665</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1629,8 +1696,16 @@
       <c r="AE5">
         <v>0</v>
       </c>
+      <c r="AF5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74899999999999989</v>
+      </c>
+      <c r="AG5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68433333333333335</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1724,8 +1799,16 @@
       <c r="AE6">
         <v>0</v>
       </c>
+      <c r="AF6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="AG6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.65700000000000003</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1819,8 +1902,16 @@
       <c r="AE7">
         <v>0</v>
       </c>
+      <c r="AF7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AG7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82699999999999996</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1914,8 +2005,16 @@
       <c r="AE8">
         <v>0</v>
       </c>
+      <c r="AF8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AG8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82066666666666654</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2009,8 +2108,16 @@
       <c r="AE9">
         <v>0</v>
       </c>
+      <c r="AF9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42366666666666664</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2104,8 +2211,16 @@
       <c r="AE10">
         <v>0</v>
       </c>
+      <c r="AF10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86499999999999988</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2199,8 +2314,16 @@
       <c r="AE11">
         <v>0</v>
       </c>
+      <c r="AF11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2294,8 +2417,16 @@
       <c r="AE12">
         <v>1</v>
       </c>
+      <c r="AF12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78433333333333344</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2389,8 +2520,16 @@
       <c r="AE13">
         <v>0</v>
       </c>
+      <c r="AF13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68199999999999994</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2484,8 +2623,16 @@
       <c r="AE14">
         <v>0</v>
       </c>
+      <c r="AF14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2579,8 +2726,16 @@
       <c r="AE15">
         <v>1</v>
       </c>
+      <c r="AF15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93060000000000009</v>
+      </c>
+      <c r="AG15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90700000000000003</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2674,8 +2829,16 @@
       <c r="AE16">
         <v>1</v>
       </c>
+      <c r="AF16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9012</v>
+      </c>
+      <c r="AG16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.85166666666666657</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2769,8 +2932,16 @@
       <c r="AE17">
         <v>0</v>
       </c>
+      <c r="AF17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.65100000000000002</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2864,8 +3035,16 @@
       <c r="AE18">
         <v>0</v>
       </c>
+      <c r="AF18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80480000000000018</v>
+      </c>
+      <c r="AG18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79900000000000004</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2959,8 +3138,16 @@
       <c r="AE19">
         <v>0</v>
       </c>
+      <c r="AF19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80140000000000011</v>
+      </c>
+      <c r="AG19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000015</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3054,8 +3241,16 @@
       <c r="AE20">
         <v>0</v>
       </c>
+      <c r="AF20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5544</v>
+      </c>
+      <c r="AG20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49233333333333329</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3149,8 +3344,16 @@
       <c r="AE21">
         <v>0</v>
       </c>
+      <c r="AF21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80080000000000007</v>
+      </c>
+      <c r="AG21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77400000000000002</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3244,8 +3447,16 @@
       <c r="AE22">
         <v>0</v>
       </c>
+      <c r="AF22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="AG22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69933333333333325</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3339,8 +3550,16 @@
       <c r="AE23">
         <v>1</v>
       </c>
+      <c r="AF23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9094000000000001</v>
+      </c>
+      <c r="AG23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88600000000000012</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3434,8 +3653,16 @@
       <c r="AE24">
         <v>0</v>
       </c>
+      <c r="AF24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69059999999999999</v>
+      </c>
+      <c r="AG24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.65133333333333332</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3529,8 +3756,16 @@
       <c r="AE25">
         <v>0</v>
       </c>
+      <c r="AF25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="AG25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.437</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3624,8 +3859,16 @@
       <c r="AE26">
         <v>0</v>
       </c>
+      <c r="AF26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98100000000000009</v>
+      </c>
+      <c r="AG26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98099999999999998</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3719,8 +3962,16 @@
       <c r="AE27">
         <v>0</v>
       </c>
+      <c r="AF27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5736</v>
+      </c>
+      <c r="AG27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3814,8 +4065,16 @@
       <c r="AE28">
         <v>0</v>
       </c>
+      <c r="AF28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66680000000000006</v>
+      </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63566666666666671</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3909,8 +4168,16 @@
       <c r="AE29">
         <v>0</v>
       </c>
+      <c r="AF29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AG29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83299999999999985</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4004,8 +4271,16 @@
       <c r="AE30">
         <v>0</v>
       </c>
+      <c r="AF30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73019999999999996</v>
+      </c>
+      <c r="AG30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68933333333333335</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4099,8 +4374,16 @@
       <c r="AE31">
         <v>0</v>
       </c>
+      <c r="AF31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="AG31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58233333333333326</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4194,8 +4477,16 @@
       <c r="AE32">
         <v>1</v>
       </c>
+      <c r="AF32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72579999999999989</v>
+      </c>
+      <c r="AG32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69499999999999995</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4289,8 +4580,16 @@
       <c r="AE33">
         <v>0</v>
       </c>
+      <c r="AF33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="AG33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94499999999999995</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4384,8 +4683,16 @@
       <c r="AE34">
         <v>0</v>
       </c>
+      <c r="AF34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="AG34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.80766666666666664</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4479,8 +4786,16 @@
       <c r="AE35">
         <v>1</v>
       </c>
+      <c r="AF35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="AG35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.73699999999999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4574,8 +4889,16 @@
       <c r="AE36">
         <v>0</v>
       </c>
+      <c r="AF36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38360000000000005</v>
+      </c>
+      <c r="AG36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3036666666666667</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4669,8 +4992,16 @@
       <c r="AE37">
         <v>0</v>
       </c>
+      <c r="AF37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="AG37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.31033333333333335</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4764,8 +5095,16 @@
       <c r="AE38">
         <v>0</v>
       </c>
+      <c r="AF38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="AG38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58133333333333326</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4859,8 +5198,16 @@
       <c r="AE39">
         <v>0</v>
       </c>
+      <c r="AF39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AG39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45500000000000002</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4954,8 +5301,16 @@
       <c r="AE40">
         <v>0</v>
       </c>
+      <c r="AF40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.50639999999999996</v>
+      </c>
+      <c r="AG40" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45933333333333337</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5049,8 +5404,16 @@
       <c r="AE41">
         <v>1</v>
       </c>
+      <c r="AF41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9012</v>
+      </c>
+      <c r="AG41" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87666666666666659</v>
+      </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5144,8 +5507,16 @@
       <c r="AE42">
         <v>0</v>
       </c>
+      <c r="AF42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.88800000000000012</v>
+      </c>
+      <c r="AG42" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88800000000000001</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5239,8 +5610,16 @@
       <c r="AE43">
         <v>0</v>
       </c>
+      <c r="AF43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36560000000000004</v>
+      </c>
+      <c r="AG43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.32766666666666672</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5334,8 +5713,16 @@
       <c r="AE44">
         <v>0</v>
       </c>
+      <c r="AF44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36879999999999996</v>
+      </c>
+      <c r="AG44" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30433333333333334</v>
+      </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5429,8 +5816,16 @@
       <c r="AE45">
         <v>0</v>
       </c>
+      <c r="AF45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81500000000000006</v>
+      </c>
+      <c r="AG45" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77066666666666672</v>
+      </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5524,8 +5919,16 @@
       <c r="AE46">
         <v>0</v>
       </c>
+      <c r="AF46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="AG46" s="3">
+        <f t="shared" si="1"/>
+        <v>0.60666666666666658</v>
+      </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5619,8 +6022,16 @@
       <c r="AE47">
         <v>0</v>
       </c>
+      <c r="AF47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="AG47" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66966666666666663</v>
+      </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5714,8 +6125,16 @@
       <c r="AE48">
         <v>0</v>
       </c>
+      <c r="AF48" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52279999999999993</v>
+      </c>
+      <c r="AG48" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47533333333333333</v>
+      </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5809,8 +6228,16 @@
       <c r="AE49">
         <v>0</v>
       </c>
+      <c r="AF49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51840000000000008</v>
+      </c>
+      <c r="AG49" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000003</v>
+      </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5904,8 +6331,16 @@
       <c r="AE50">
         <v>0</v>
       </c>
+      <c r="AF50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AG50" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82900000000000007</v>
+      </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5999,8 +6434,16 @@
       <c r="AE51">
         <v>1</v>
       </c>
+      <c r="AF51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="AG51" s="3">
+        <f t="shared" si="1"/>
+        <v>0.72799999999999987</v>
+      </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6094,8 +6537,16 @@
       <c r="AE52">
         <v>0</v>
       </c>
+      <c r="AF52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="AG52" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42633333333333329</v>
+      </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6189,8 +6640,16 @@
       <c r="AE53">
         <v>1</v>
       </c>
+      <c r="AF53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81759999999999999</v>
+      </c>
+      <c r="AG53" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77400000000000002</v>
+      </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6284,8 +6743,16 @@
       <c r="AE54">
         <v>0</v>
       </c>
+      <c r="AF54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.77960000000000007</v>
+      </c>
+      <c r="AG54" s="3">
+        <f t="shared" si="1"/>
+        <v>0.70066666666666666</v>
+      </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6379,8 +6846,16 @@
       <c r="AE55">
         <v>0</v>
       </c>
+      <c r="AF55" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81100000000000017</v>
+      </c>
+      <c r="AG55" s="3">
+        <f t="shared" si="1"/>
+        <v>0.81100000000000005</v>
+      </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6474,8 +6949,16 @@
       <c r="AE56">
         <v>1</v>
       </c>
+      <c r="AF56" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="AG56" s="3">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6569,8 +7052,16 @@
       <c r="AE57">
         <v>0</v>
       </c>
+      <c r="AF57" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86940000000000006</v>
+      </c>
+      <c r="AG57" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82166666666666666</v>
+      </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6664,8 +7155,16 @@
       <c r="AE58">
         <v>0</v>
       </c>
+      <c r="AF58" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="AG58" s="3">
+        <f t="shared" si="1"/>
+        <v>0.76600000000000001</v>
+      </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6759,8 +7258,16 @@
       <c r="AE59">
         <v>0</v>
       </c>
+      <c r="AF59" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42919999999999997</v>
+      </c>
+      <c r="AG59" s="3">
+        <f t="shared" si="1"/>
+        <v>0.35799999999999993</v>
+      </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6854,8 +7361,16 @@
       <c r="AE60">
         <v>1</v>
       </c>
+      <c r="AF60" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="AG60" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89133333333333342</v>
+      </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6949,8 +7464,16 @@
       <c r="AE61">
         <v>0</v>
       </c>
+      <c r="AF61" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AG61" s="3">
+        <f t="shared" si="1"/>
+        <v>0.37633333333333335</v>
+      </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7044,8 +7567,16 @@
       <c r="AE62">
         <v>0</v>
       </c>
+      <c r="AF62" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="AG62" s="3">
+        <f t="shared" si="1"/>
+        <v>0.70866666666666667</v>
+      </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7139,8 +7670,16 @@
       <c r="AE63">
         <v>0</v>
       </c>
+      <c r="AF63" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7056</v>
+      </c>
+      <c r="AG63" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7234,8 +7773,16 @@
       <c r="AE64">
         <v>1</v>
       </c>
+      <c r="AF64" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="AG64" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68366666666666676</v>
+      </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7329,8 +7876,16 @@
       <c r="AE65">
         <v>1</v>
       </c>
+      <c r="AF65" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66760000000000008</v>
+      </c>
+      <c r="AG65" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6216666666666667</v>
+      </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7424,8 +7979,16 @@
       <c r="AE66">
         <v>0</v>
       </c>
+      <c r="AF66" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6624000000000001</v>
+      </c>
+      <c r="AG66" s="3">
+        <f t="shared" si="1"/>
+        <v>0.62666666666666659</v>
+      </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7519,8 +8082,16 @@
       <c r="AE67">
         <v>0</v>
       </c>
+      <c r="AF67" s="3">
+        <f t="shared" ref="AF67:AF130" si="2">AVERAGE(L67:P67)</f>
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="AG67" s="3">
+        <f t="shared" ref="AG67:AG130" si="3">AVERAGE(E67:G67)</f>
+        <v>0.54233333333333344</v>
+      </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7614,8 +8185,16 @@
       <c r="AE68">
         <v>0</v>
       </c>
+      <c r="AF68" s="3">
+        <f t="shared" si="2"/>
+        <v>0.43499999999999994</v>
+      </c>
+      <c r="AG68" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7709,8 +8288,16 @@
       <c r="AE69">
         <v>0</v>
       </c>
+      <c r="AF69" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="AG69" s="3">
+        <f t="shared" si="3"/>
+        <v>0.80500000000000005</v>
+      </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7804,8 +8391,16 @@
       <c r="AE70">
         <v>0</v>
       </c>
+      <c r="AF70" s="3">
+        <f t="shared" si="2"/>
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="AG70" s="3">
+        <f t="shared" si="3"/>
+        <v>0.3133333333333333</v>
+      </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7899,8 +8494,16 @@
       <c r="AE71">
         <v>0</v>
       </c>
+      <c r="AF71" s="3">
+        <f t="shared" si="2"/>
+        <v>0.7165999999999999</v>
+      </c>
+      <c r="AG71" s="3">
+        <f t="shared" si="3"/>
+        <v>0.69999999999999984</v>
+      </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7994,8 +8597,16 @@
       <c r="AE72">
         <v>1</v>
       </c>
+      <c r="AF72" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="AG72" s="3">
+        <f t="shared" si="3"/>
+        <v>0.874</v>
+      </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8089,8 +8700,16 @@
       <c r="AE73">
         <v>1</v>
       </c>
+      <c r="AF73" s="3">
+        <f t="shared" si="2"/>
+        <v>0.87940000000000007</v>
+      </c>
+      <c r="AG73" s="3">
+        <f t="shared" si="3"/>
+        <v>0.85266666666666657</v>
+      </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8184,8 +8803,16 @@
       <c r="AE74">
         <v>0</v>
       </c>
+      <c r="AF74" s="3">
+        <f t="shared" si="2"/>
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="AG74" s="3">
+        <f t="shared" si="3"/>
+        <v>0.79300000000000004</v>
+      </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8279,8 +8906,16 @@
       <c r="AE75">
         <v>0</v>
       </c>
+      <c r="AF75" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8374,8 +9009,16 @@
       <c r="AE76">
         <v>0</v>
       </c>
+      <c r="AF76" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="AG76" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6256666666666667</v>
+      </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8469,8 +9112,16 @@
       <c r="AE77">
         <v>0</v>
       </c>
+      <c r="AF77" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45680000000000004</v>
+      </c>
+      <c r="AG77" s="3">
+        <f t="shared" si="3"/>
+        <v>0.41599999999999998</v>
+      </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8564,8 +9215,16 @@
       <c r="AE78">
         <v>0</v>
       </c>
+      <c r="AF78" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75259999999999994</v>
+      </c>
+      <c r="AG78" s="3">
+        <f t="shared" si="3"/>
+        <v>0.70033333333333336</v>
+      </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8659,8 +9318,16 @@
       <c r="AE79">
         <v>1</v>
       </c>
+      <c r="AF79" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92840000000000011</v>
+      </c>
+      <c r="AG79" s="3">
+        <f t="shared" si="3"/>
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8754,8 +9421,16 @@
       <c r="AE80">
         <v>0</v>
       </c>
+      <c r="AF80" s="3">
+        <f t="shared" si="2"/>
+        <v>0.56540000000000001</v>
+      </c>
+      <c r="AG80" s="3">
+        <f t="shared" si="3"/>
+        <v>0.49733333333333335</v>
+      </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8849,8 +9524,16 @@
       <c r="AE81">
         <v>0</v>
       </c>
+      <c r="AF81" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="AG81" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96099999999999997</v>
+      </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8944,8 +9627,16 @@
       <c r="AE82">
         <v>1</v>
       </c>
+      <c r="AF82" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="AG82" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82433333333333325</v>
+      </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9039,8 +9730,16 @@
       <c r="AE83">
         <v>0</v>
       </c>
+      <c r="AF83" s="3">
+        <f t="shared" si="2"/>
+        <v>0.754</v>
+      </c>
+      <c r="AG83" s="3">
+        <f t="shared" si="3"/>
+        <v>0.48333333333333334</v>
+      </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9134,8 +9833,16 @@
       <c r="AE84">
         <v>0</v>
       </c>
+      <c r="AF84" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="AG84" s="3">
+        <f t="shared" si="3"/>
+        <v>0.85300000000000009</v>
+      </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9229,8 +9936,16 @@
       <c r="AE85">
         <v>0</v>
       </c>
+      <c r="AF85" s="3">
+        <f t="shared" si="2"/>
+        <v>0.60680000000000001</v>
+      </c>
+      <c r="AG85" s="3">
+        <f t="shared" si="3"/>
+        <v>0.56233333333333335</v>
+      </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9324,8 +10039,16 @@
       <c r="AE86">
         <v>0</v>
       </c>
+      <c r="AF86" s="3">
+        <f t="shared" si="2"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="AG86" s="3">
+        <f t="shared" si="3"/>
+        <v>0.34999999999999992</v>
+      </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9419,8 +10142,16 @@
       <c r="AE87">
         <v>0</v>
       </c>
+      <c r="AF87" s="3">
+        <f t="shared" si="2"/>
+        <v>0.43660000000000004</v>
+      </c>
+      <c r="AG87" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9514,8 +10245,16 @@
       <c r="AE88">
         <v>0</v>
       </c>
+      <c r="AF88" s="3">
+        <f t="shared" si="2"/>
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="AG88" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6196666666666667</v>
+      </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9609,8 +10348,16 @@
       <c r="AE89">
         <v>0</v>
       </c>
+      <c r="AF89" s="3">
+        <f t="shared" si="2"/>
+        <v>0.47339999999999999</v>
+      </c>
+      <c r="AG89" s="3">
+        <f t="shared" si="3"/>
+        <v>0.4463333333333333</v>
+      </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9704,8 +10451,16 @@
       <c r="AE90">
         <v>0</v>
       </c>
+      <c r="AF90" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9799,8 +10554,16 @@
       <c r="AE91">
         <v>0</v>
       </c>
+      <c r="AF91" s="3">
+        <f t="shared" si="2"/>
+        <v>0.60860000000000003</v>
+      </c>
+      <c r="AG91" s="3">
+        <f t="shared" si="3"/>
+        <v>0.57500000000000007</v>
+      </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9894,8 +10657,16 @@
       <c r="AE92">
         <v>1</v>
       </c>
+      <c r="AF92" s="3">
+        <f t="shared" si="2"/>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="AG92" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78866666666666674</v>
+      </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9989,8 +10760,16 @@
       <c r="AE93">
         <v>1</v>
       </c>
+      <c r="AF93" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90340000000000009</v>
+      </c>
+      <c r="AG93" s="3">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10084,8 +10863,16 @@
       <c r="AE94">
         <v>0</v>
       </c>
+      <c r="AF94" s="3">
+        <f t="shared" si="2"/>
+        <v>0.57919999999999994</v>
+      </c>
+      <c r="AG94" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5076666666666666</v>
+      </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10179,8 +10966,16 @@
       <c r="AE95">
         <v>0</v>
       </c>
+      <c r="AF95" s="3">
+        <f t="shared" si="2"/>
+        <v>0.66480000000000006</v>
+      </c>
+      <c r="AG95" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6153333333333334</v>
+      </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10274,8 +11069,16 @@
       <c r="AE96">
         <v>0</v>
       </c>
+      <c r="AF96" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74499999999999988</v>
+      </c>
+      <c r="AG96" s="3">
+        <f t="shared" si="3"/>
+        <v>0.67066666666666663</v>
+      </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10369,8 +11172,16 @@
       <c r="AE97">
         <v>0</v>
       </c>
+      <c r="AF97" s="3">
+        <f t="shared" si="2"/>
+        <v>0.63719999999999999</v>
+      </c>
+      <c r="AG97" s="3">
+        <f t="shared" si="3"/>
+        <v>0.59766666666666668</v>
+      </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10464,8 +11275,16 @@
       <c r="AE98">
         <v>1</v>
       </c>
+      <c r="AF98" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90560000000000007</v>
+      </c>
+      <c r="AG98" s="3">
+        <f t="shared" si="3"/>
+        <v>0.88099999999999989</v>
+      </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10559,8 +11378,16 @@
       <c r="AE99">
         <v>0</v>
       </c>
+      <c r="AF99" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="AG99" s="3">
+        <f t="shared" si="3"/>
+        <v>0.8706666666666667</v>
+      </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10654,8 +11481,16 @@
       <c r="AE100">
         <v>1</v>
       </c>
+      <c r="AF100" s="3">
+        <f t="shared" si="2"/>
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="AG100" s="3">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10749,8 +11584,16 @@
       <c r="AE101">
         <v>0</v>
       </c>
+      <c r="AF101" s="3">
+        <f t="shared" si="2"/>
+        <v>0.7327999999999999</v>
+      </c>
+      <c r="AG101" s="3">
+        <f t="shared" si="3"/>
+        <v>0.68933333333333324</v>
+      </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10844,8 +11687,16 @@
       <c r="AE102">
         <v>0</v>
       </c>
+      <c r="AF102" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="AG102" s="3">
+        <f t="shared" si="3"/>
+        <v>0.86399999999999999</v>
+      </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10939,8 +11790,16 @@
       <c r="AE103">
         <v>0</v>
       </c>
+      <c r="AF103" s="3">
+        <f t="shared" si="2"/>
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="AG103" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71733333333333338</v>
+      </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -11034,8 +11893,16 @@
       <c r="AE104">
         <v>0</v>
       </c>
+      <c r="AF104" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76760000000000006</v>
+      </c>
+      <c r="AG104" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71333333333333326</v>
+      </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -11129,8 +11996,16 @@
       <c r="AE105">
         <v>0</v>
       </c>
+      <c r="AF105" s="3">
+        <f t="shared" si="2"/>
+        <v>0.54980000000000007</v>
+      </c>
+      <c r="AG105" s="3">
+        <f t="shared" si="3"/>
+        <v>0.46933333333333332</v>
+      </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -11224,8 +12099,16 @@
       <c r="AE106">
         <v>0</v>
       </c>
+      <c r="AF106" s="3">
+        <f t="shared" si="2"/>
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="AG106" s="3">
+        <f t="shared" si="3"/>
+        <v>0.57066666666666654</v>
+      </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -11319,8 +12202,16 @@
       <c r="AE107">
         <v>0</v>
       </c>
+      <c r="AF107" s="3">
+        <f t="shared" si="2"/>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="AG107" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78200000000000003</v>
+      </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -11414,8 +12305,16 @@
       <c r="AE108">
         <v>0</v>
       </c>
+      <c r="AF108" s="3">
+        <f t="shared" si="2"/>
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="AG108" s="3">
+        <f t="shared" si="3"/>
+        <v>0.63166666666666671</v>
+      </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -11509,8 +12408,16 @@
       <c r="AE109">
         <v>0</v>
       </c>
+      <c r="AF109" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5544</v>
+      </c>
+      <c r="AG109" s="3">
+        <f t="shared" si="3"/>
+        <v>0.48566666666666664</v>
+      </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -11604,8 +12511,16 @@
       <c r="AE110">
         <v>1</v>
       </c>
+      <c r="AF110" s="3">
+        <f t="shared" si="2"/>
+        <v>0.82779999999999987</v>
+      </c>
+      <c r="AG110" s="3">
+        <f t="shared" si="3"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -11699,8 +12614,16 @@
       <c r="AE111">
         <v>0</v>
       </c>
+      <c r="AF111" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76279999999999992</v>
+      </c>
+      <c r="AG111" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -11794,8 +12717,16 @@
       <c r="AE112">
         <v>0</v>
       </c>
+      <c r="AF112" s="3">
+        <f t="shared" si="2"/>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AG112" s="3">
+        <f t="shared" si="3"/>
+        <v>0.44700000000000001</v>
+      </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -11889,8 +12820,16 @@
       <c r="AE113">
         <v>0</v>
       </c>
+      <c r="AF113" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="AG113" s="3">
+        <f t="shared" si="3"/>
+        <v>0.42966666666666664</v>
+      </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -11984,8 +12923,16 @@
       <c r="AE114">
         <v>0</v>
       </c>
+      <c r="AF114" s="3">
+        <f t="shared" si="2"/>
+        <v>0.79000000000000015</v>
+      </c>
+      <c r="AG114" s="3">
+        <f t="shared" si="3"/>
+        <v>0.79066666666666674</v>
+      </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -12079,8 +13026,16 @@
       <c r="AE115">
         <v>0</v>
       </c>
+      <c r="AF115" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="AG115" s="3">
+        <f t="shared" si="3"/>
+        <v>0.87300000000000011</v>
+      </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -12174,8 +13129,16 @@
       <c r="AE116">
         <v>0</v>
       </c>
+      <c r="AF116" s="3">
+        <f t="shared" si="2"/>
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="AG116" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78533333333333344</v>
+      </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -12269,8 +13232,16 @@
       <c r="AE117">
         <v>1</v>
       </c>
+      <c r="AF117" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89600000000000013</v>
+      </c>
+      <c r="AG117" s="3">
+        <f t="shared" si="3"/>
+        <v>0.86900000000000011</v>
+      </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -12364,8 +13335,16 @@
       <c r="AE118">
         <v>0</v>
       </c>
+      <c r="AF118" s="3">
+        <f t="shared" si="2"/>
+        <v>0.51059999999999994</v>
+      </c>
+      <c r="AG118" s="3">
+        <f t="shared" si="3"/>
+        <v>0.46833333333333332</v>
+      </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -12459,8 +13438,16 @@
       <c r="AE119">
         <v>0</v>
       </c>
+      <c r="AF119" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4284</v>
+      </c>
+      <c r="AG119" s="3">
+        <f t="shared" si="3"/>
+        <v>0.36866666666666664</v>
+      </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -12554,8 +13541,16 @@
       <c r="AE120">
         <v>0</v>
       </c>
+      <c r="AF120" s="3">
+        <f t="shared" si="2"/>
+        <v>0.77140000000000009</v>
+      </c>
+      <c r="AG120" s="3">
+        <f t="shared" si="3"/>
+        <v>0.72466666666666668</v>
+      </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -12649,8 +13644,16 @@
       <c r="AE121">
         <v>0</v>
       </c>
+      <c r="AF121" s="3">
+        <f t="shared" si="2"/>
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="AG121" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6333333333333333</v>
+      </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -12744,8 +13747,16 @@
       <c r="AE122">
         <v>0</v>
       </c>
+      <c r="AF122" s="3">
+        <f t="shared" si="2"/>
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="AG122" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33533333333333332</v>
+      </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -12839,8 +13850,16 @@
       <c r="AE123">
         <v>0</v>
       </c>
+      <c r="AF123" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="AG123" s="3">
+        <f t="shared" si="3"/>
+        <v>0.80500000000000005</v>
+      </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -12934,8 +13953,16 @@
       <c r="AE124">
         <v>0</v>
       </c>
+      <c r="AF124" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG124" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -13029,8 +14056,16 @@
       <c r="AE125">
         <v>0</v>
       </c>
+      <c r="AF125" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84800000000000009</v>
+      </c>
+      <c r="AG125" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84799999999999998</v>
+      </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -13124,8 +14159,16 @@
       <c r="AE126">
         <v>0</v>
       </c>
+      <c r="AF126" s="3">
+        <f t="shared" si="2"/>
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="AG126" s="3">
+        <f t="shared" si="3"/>
+        <v>0.46733333333333338</v>
+      </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -13216,8 +14259,16 @@
       <c r="AE127">
         <v>0</v>
       </c>
+      <c r="AF127" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75299999999999989</v>
+      </c>
+      <c r="AG127" s="3">
+        <f t="shared" si="3"/>
+        <v>0.69333333333333336</v>
+      </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -13311,8 +14362,16 @@
       <c r="AE128">
         <v>1</v>
       </c>
+      <c r="AF128" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75159999999999993</v>
+      </c>
+      <c r="AG128" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71733333333333338</v>
+      </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -13406,8 +14465,16 @@
       <c r="AE129">
         <v>0</v>
       </c>
+      <c r="AF129" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5998</v>
+      </c>
+      <c r="AG129" s="3">
+        <f t="shared" si="3"/>
+        <v>0.55900000000000005</v>
+      </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -13501,8 +14568,16 @@
       <c r="AE130">
         <v>0</v>
       </c>
+      <c r="AF130" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG130" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -13596,8 +14671,16 @@
       <c r="AE131">
         <v>0</v>
       </c>
+      <c r="AF131" s="3">
+        <f t="shared" ref="AF131:AF194" si="4">AVERAGE(L131:P131)</f>
+        <v>0.69860000000000011</v>
+      </c>
+      <c r="AG131" s="3">
+        <f t="shared" ref="AG131:AG194" si="5">AVERAGE(E131:G131)</f>
+        <v>0.60933333333333328</v>
+      </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -13691,8 +14774,16 @@
       <c r="AE132">
         <v>0</v>
       </c>
+      <c r="AF132" s="3">
+        <f t="shared" si="4"/>
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="AG132" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -13786,8 +14877,16 @@
       <c r="AE133">
         <v>0</v>
       </c>
+      <c r="AF133" s="3">
+        <f t="shared" si="4"/>
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="AG133" s="3">
+        <f t="shared" si="5"/>
+        <v>0.82100000000000006</v>
+      </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -13881,8 +14980,16 @@
       <c r="AE134">
         <v>0</v>
       </c>
+      <c r="AF134" s="3">
+        <f t="shared" si="4"/>
+        <v>0.61739999999999995</v>
+      </c>
+      <c r="AG134" s="3">
+        <f t="shared" si="5"/>
+        <v>0.55133333333333334</v>
+      </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -13976,8 +15083,16 @@
       <c r="AE135">
         <v>0</v>
       </c>
+      <c r="AF135" s="3">
+        <f t="shared" si="4"/>
+        <v>0.39639999999999997</v>
+      </c>
+      <c r="AG135" s="3">
+        <f t="shared" si="5"/>
+        <v>0.32900000000000001</v>
+      </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -14071,8 +15186,16 @@
       <c r="AE136">
         <v>0</v>
       </c>
+      <c r="AF136" s="3">
+        <f t="shared" si="4"/>
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="AG136" s="3">
+        <f t="shared" si="5"/>
+        <v>0.43233333333333329</v>
+      </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -14166,8 +15289,16 @@
       <c r="AE137">
         <v>0</v>
       </c>
+      <c r="AF137" s="3">
+        <f t="shared" si="4"/>
+        <v>0.58939999999999992</v>
+      </c>
+      <c r="AG137" s="3">
+        <f t="shared" si="5"/>
+        <v>0.54233333333333344</v>
+      </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -14261,8 +15392,16 @@
       <c r="AE138">
         <v>0</v>
       </c>
+      <c r="AF138" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG138" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -14356,8 +15495,16 @@
       <c r="AE139">
         <v>0</v>
       </c>
+      <c r="AF139" s="3">
+        <f t="shared" si="4"/>
+        <v>0.53439999999999999</v>
+      </c>
+      <c r="AG139" s="3">
+        <f t="shared" si="5"/>
+        <v>0.46266666666666662</v>
+      </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -14451,8 +15598,16 @@
       <c r="AE140">
         <v>1</v>
       </c>
+      <c r="AF140" s="3">
+        <f t="shared" si="4"/>
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="AG140" s="3">
+        <f t="shared" si="5"/>
+        <v>0.88700000000000001</v>
+      </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -14546,8 +15701,16 @@
       <c r="AE141">
         <v>0</v>
       </c>
+      <c r="AF141" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG141" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -14641,8 +15804,16 @@
       <c r="AE142">
         <v>1</v>
       </c>
+      <c r="AF142" s="3">
+        <f t="shared" si="4"/>
+        <v>0.90659999999999985</v>
+      </c>
+      <c r="AG142" s="3">
+        <f t="shared" si="5"/>
+        <v>0.88633333333333331</v>
+      </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -14736,8 +15907,16 @@
       <c r="AE143">
         <v>0</v>
       </c>
+      <c r="AF143" s="3">
+        <f t="shared" si="4"/>
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="AG143" s="3">
+        <f t="shared" si="5"/>
+        <v>0.58799999999999997</v>
+      </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -14831,8 +16010,16 @@
       <c r="AE144">
         <v>0</v>
       </c>
+      <c r="AF144" s="3">
+        <f t="shared" si="4"/>
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="AG144" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27233333333333337</v>
+      </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -14926,8 +16113,16 @@
       <c r="AE145">
         <v>0</v>
       </c>
+      <c r="AF145" s="3">
+        <f t="shared" si="4"/>
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="AG145" s="3">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -15021,8 +16216,16 @@
       <c r="AE146">
         <v>0</v>
       </c>
+      <c r="AF146" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG146" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -15116,8 +16319,16 @@
       <c r="AE147">
         <v>0</v>
       </c>
+      <c r="AF147" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="AG147" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95799999999999985</v>
+      </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -15211,8 +16422,16 @@
       <c r="AE148">
         <v>1</v>
       </c>
+      <c r="AF148" s="3">
+        <f t="shared" si="4"/>
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="AG148" s="3">
+        <f t="shared" si="5"/>
+        <v>0.91800000000000004</v>
+      </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -15306,8 +16525,16 @@
       <c r="AE149">
         <v>0</v>
       </c>
+      <c r="AF149" s="3">
+        <f t="shared" si="4"/>
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="AG149" s="3">
+        <f t="shared" si="5"/>
+        <v>0.71433333333333326</v>
+      </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -15401,8 +16628,16 @@
       <c r="AE150">
         <v>0</v>
       </c>
+      <c r="AF150" s="3">
+        <f t="shared" si="4"/>
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="AG150" s="3">
+        <f t="shared" si="5"/>
+        <v>0.46233333333333332</v>
+      </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -15496,8 +16731,16 @@
       <c r="AE151">
         <v>0</v>
       </c>
+      <c r="AF151" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7874000000000001</v>
+      </c>
+      <c r="AG151" s="3">
+        <f t="shared" si="5"/>
+        <v>0.751</v>
+      </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -15591,8 +16834,16 @@
       <c r="AE152">
         <v>0</v>
       </c>
+      <c r="AF152" s="3">
+        <f t="shared" si="4"/>
+        <v>0.68540000000000001</v>
+      </c>
+      <c r="AG152" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -15686,8 +16937,16 @@
       <c r="AE153">
         <v>0</v>
       </c>
+      <c r="AF153" s="3">
+        <f t="shared" si="4"/>
+        <v>0.77660000000000007</v>
+      </c>
+      <c r="AG153" s="3">
+        <f t="shared" si="5"/>
+        <v>0.74266666666666659</v>
+      </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -15781,8 +17040,16 @@
       <c r="AE154">
         <v>0</v>
       </c>
+      <c r="AF154" s="3">
+        <f t="shared" si="4"/>
+        <v>0.51740000000000008</v>
+      </c>
+      <c r="AG154" s="3">
+        <f t="shared" si="5"/>
+        <v>0.46266666666666662</v>
+      </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -15876,8 +17143,16 @@
       <c r="AE155">
         <v>0</v>
       </c>
+      <c r="AF155" s="3">
+        <f t="shared" si="4"/>
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="AG155" s="3">
+        <f t="shared" si="5"/>
+        <v>0.65800000000000003</v>
+      </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -15971,8 +17246,16 @@
       <c r="AE156">
         <v>1</v>
       </c>
+      <c r="AF156" s="3">
+        <f t="shared" si="4"/>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="AG156" s="3">
+        <f t="shared" si="5"/>
+        <v>0.68733333333333346</v>
+      </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -16066,8 +17349,16 @@
       <c r="AE157">
         <v>0</v>
       </c>
+      <c r="AF157" s="3">
+        <f t="shared" si="4"/>
+        <v>0.6724</v>
+      </c>
+      <c r="AG157" s="3">
+        <f t="shared" si="5"/>
+        <v>0.6376666666666666</v>
+      </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -16161,8 +17452,16 @@
       <c r="AE158">
         <v>1</v>
       </c>
+      <c r="AF158" s="3">
+        <f t="shared" si="4"/>
+        <v>0.83799999999999986</v>
+      </c>
+      <c r="AG158" s="3">
+        <f t="shared" si="5"/>
+        <v>0.80300000000000005</v>
+      </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -16256,8 +17555,16 @@
       <c r="AE159">
         <v>1</v>
       </c>
+      <c r="AF159" s="3">
+        <f t="shared" si="4"/>
+        <v>0.8276</v>
+      </c>
+      <c r="AG159" s="3">
+        <f t="shared" si="5"/>
+        <v>0.80066666666666675</v>
+      </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -16351,8 +17658,16 @@
       <c r="AE160">
         <v>0</v>
       </c>
+      <c r="AF160" s="3">
+        <f t="shared" si="4"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AG160" s="3">
+        <f t="shared" si="5"/>
+        <v>0.84500000000000008</v>
+      </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -16446,8 +17761,16 @@
       <c r="AE161">
         <v>0</v>
       </c>
+      <c r="AF161" s="3">
+        <f t="shared" si="4"/>
+        <v>0.84239999999999993</v>
+      </c>
+      <c r="AG161" s="3">
+        <f t="shared" si="5"/>
+        <v>0.82299999999999995</v>
+      </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -16541,8 +17864,16 @@
       <c r="AE162">
         <v>1</v>
       </c>
+      <c r="AF162" s="3">
+        <f t="shared" si="4"/>
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="AG162" s="3">
+        <f t="shared" si="5"/>
+        <v>0.83666666666666656</v>
+      </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -16636,8 +17967,16 @@
       <c r="AE163">
         <v>0</v>
       </c>
+      <c r="AF163" s="3">
+        <f t="shared" si="4"/>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="AG163" s="3">
+        <f t="shared" si="5"/>
+        <v>0.66233333333333333</v>
+      </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -16731,8 +18070,16 @@
       <c r="AE164">
         <v>1</v>
       </c>
+      <c r="AF164" s="3">
+        <f t="shared" si="4"/>
+        <v>0.80460000000000009</v>
+      </c>
+      <c r="AG164" s="3">
+        <f t="shared" si="5"/>
+        <v>0.73066666666666658</v>
+      </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -16826,8 +18173,16 @@
       <c r="AE165">
         <v>1</v>
       </c>
+      <c r="AF165" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7834000000000001</v>
+      </c>
+      <c r="AG165" s="3">
+        <f t="shared" si="5"/>
+        <v>0.73466666666666658</v>
+      </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -16921,8 +18276,16 @@
       <c r="AE166">
         <v>0</v>
       </c>
+      <c r="AF166" s="3">
+        <f t="shared" si="4"/>
+        <v>0.48759999999999992</v>
+      </c>
+      <c r="AG166" s="3">
+        <f t="shared" si="5"/>
+        <v>0.36499999999999999</v>
+      </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -17016,8 +18379,16 @@
       <c r="AE167">
         <v>0</v>
       </c>
+      <c r="AF167" s="3">
+        <f t="shared" si="4"/>
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="AG167" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -17111,8 +18482,16 @@
       <c r="AE168">
         <v>0</v>
       </c>
+      <c r="AF168" s="3">
+        <f t="shared" si="4"/>
+        <v>0.72979999999999989</v>
+      </c>
+      <c r="AG168" s="3">
+        <f t="shared" si="5"/>
+        <v>0.69299999999999995</v>
+      </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -17206,8 +18585,16 @@
       <c r="AE169">
         <v>0</v>
       </c>
+      <c r="AF169" s="3">
+        <f t="shared" si="4"/>
+        <v>0.72</v>
+      </c>
+      <c r="AG169" s="3">
+        <f t="shared" si="5"/>
+        <v>0.69133333333333324</v>
+      </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -17301,8 +18688,16 @@
       <c r="AE170">
         <v>0</v>
       </c>
+      <c r="AF170" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG170" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -17396,8 +18791,16 @@
       <c r="AE171">
         <v>0</v>
       </c>
+      <c r="AF171" s="3">
+        <f t="shared" si="4"/>
+        <v>0.69500000000000006</v>
+      </c>
+      <c r="AG171" s="3">
+        <f t="shared" si="5"/>
+        <v>0.66100000000000003</v>
+      </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -17491,8 +18894,16 @@
       <c r="AE172">
         <v>0</v>
       </c>
+      <c r="AF172" s="3">
+        <f t="shared" si="4"/>
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="AG172" s="3">
+        <f t="shared" si="5"/>
+        <v>0.85300000000000009</v>
+      </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -17586,8 +18997,16 @@
       <c r="AE173">
         <v>0</v>
       </c>
+      <c r="AF173" s="3">
+        <f t="shared" si="4"/>
+        <v>0.56080000000000008</v>
+      </c>
+      <c r="AG173" s="3">
+        <f t="shared" si="5"/>
+        <v>0.51200000000000001</v>
+      </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -17681,8 +19100,16 @@
       <c r="AE174">
         <v>0</v>
       </c>
+      <c r="AF174" s="3">
+        <f t="shared" si="4"/>
+        <v>0.81099999999999994</v>
+      </c>
+      <c r="AG174" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7496666666666667</v>
+      </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -17776,8 +19203,16 @@
       <c r="AE175">
         <v>0</v>
       </c>
+      <c r="AF175" s="3">
+        <f t="shared" si="4"/>
+        <v>0.46880000000000005</v>
+      </c>
+      <c r="AG175" s="3">
+        <f t="shared" si="5"/>
+        <v>0.41099999999999998</v>
+      </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -17871,8 +19306,16 @@
       <c r="AE176">
         <v>1</v>
       </c>
+      <c r="AF176" s="3">
+        <f t="shared" si="4"/>
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="AG176" s="3">
+        <f t="shared" si="5"/>
+        <v>0.72699999999999998</v>
+      </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -17966,8 +19409,16 @@
       <c r="AE177">
         <v>0</v>
       </c>
+      <c r="AF177" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7579999999999999</v>
+      </c>
+      <c r="AG177" s="3">
+        <f t="shared" si="5"/>
+        <v>0.71166666666666656</v>
+      </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -18061,8 +19512,16 @@
       <c r="AE178">
         <v>0</v>
       </c>
+      <c r="AF178" s="3">
+        <f t="shared" si="4"/>
+        <v>0.40119999999999995</v>
+      </c>
+      <c r="AG178" s="3">
+        <f t="shared" si="5"/>
+        <v>0.32366666666666671</v>
+      </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -18156,8 +19615,16 @@
       <c r="AE179">
         <v>0</v>
       </c>
+      <c r="AF179" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9032</v>
+      </c>
+      <c r="AG179" s="3">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333337</v>
+      </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -18251,8 +19718,16 @@
       <c r="AE180">
         <v>0</v>
       </c>
+      <c r="AF180" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG180" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -18346,8 +19821,16 @@
       <c r="AE181">
         <v>1</v>
       </c>
+      <c r="AF181" s="3">
+        <f t="shared" si="4"/>
+        <v>0.83200000000000007</v>
+      </c>
+      <c r="AG181" s="3">
+        <f t="shared" si="5"/>
+        <v>0.77233333333333343</v>
+      </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -18441,8 +19924,16 @@
       <c r="AE182">
         <v>1</v>
       </c>
+      <c r="AF182" s="3">
+        <f t="shared" si="4"/>
+        <v>0.88700000000000012</v>
+      </c>
+      <c r="AG182" s="3">
+        <f t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -18536,8 +20027,16 @@
       <c r="AE183">
         <v>0</v>
       </c>
+      <c r="AF183" s="3">
+        <f t="shared" si="4"/>
+        <v>0.53439999999999999</v>
+      </c>
+      <c r="AG183" s="3">
+        <f t="shared" si="5"/>
+        <v>0.48599999999999999</v>
+      </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -18631,8 +20130,16 @@
       <c r="AE184">
         <v>0</v>
       </c>
+      <c r="AF184" s="3">
+        <f t="shared" si="4"/>
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="AG184" s="3">
+        <f t="shared" si="5"/>
+        <v>0.36099999999999999</v>
+      </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -18726,8 +20233,16 @@
       <c r="AE185">
         <v>1</v>
       </c>
+      <c r="AF185" s="3">
+        <f t="shared" si="4"/>
+        <v>0.66100000000000014</v>
+      </c>
+      <c r="AG185" s="3">
+        <f t="shared" si="5"/>
+        <v>0.61633333333333329</v>
+      </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -18821,8 +20336,16 @@
       <c r="AE186">
         <v>0</v>
       </c>
+      <c r="AF186" s="3">
+        <f t="shared" si="4"/>
+        <v>0.24740000000000001</v>
+      </c>
+      <c r="AG186" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -18916,8 +20439,16 @@
       <c r="AE187">
         <v>1</v>
       </c>
+      <c r="AF187" s="3">
+        <f t="shared" si="4"/>
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="AG187" s="3">
+        <f t="shared" si="5"/>
+        <v>0.83733333333333337</v>
+      </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -19011,8 +20542,16 @@
       <c r="AE188">
         <v>0</v>
       </c>
+      <c r="AF188" s="3">
+        <f t="shared" si="4"/>
+        <v>0.75500000000000012</v>
+      </c>
+      <c r="AG188" s="3">
+        <f t="shared" si="5"/>
+        <v>0.70400000000000007</v>
+      </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -19106,8 +20645,16 @@
       <c r="AE189">
         <v>0</v>
       </c>
+      <c r="AF189" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG189" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -19201,8 +20748,16 @@
       <c r="AE190">
         <v>0</v>
       </c>
+      <c r="AF190" s="3">
+        <f t="shared" si="4"/>
+        <v>0.47160000000000002</v>
+      </c>
+      <c r="AG190" s="3">
+        <f t="shared" si="5"/>
+        <v>0.41533333333333333</v>
+      </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -19296,8 +20851,16 @@
       <c r="AE191">
         <v>0</v>
       </c>
+      <c r="AF191" s="3">
+        <f t="shared" si="4"/>
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="AG191" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -19391,8 +20954,16 @@
       <c r="AE192">
         <v>0</v>
       </c>
+      <c r="AF192" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG192" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -19486,8 +21057,16 @@
       <c r="AE193">
         <v>0</v>
       </c>
+      <c r="AF193" s="3">
+        <f t="shared" si="4"/>
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="AG193" s="3">
+        <f t="shared" si="5"/>
+        <v>0.4443333333333333</v>
+      </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -19581,8 +21160,16 @@
       <c r="AE194">
         <v>1</v>
       </c>
+      <c r="AF194" s="3">
+        <f t="shared" si="4"/>
+        <v>0.90979999999999994</v>
+      </c>
+      <c r="AG194" s="3">
+        <f t="shared" si="5"/>
+        <v>0.90866666666666662</v>
+      </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -19676,8 +21263,16 @@
       <c r="AE195">
         <v>1</v>
       </c>
+      <c r="AF195" s="3">
+        <f t="shared" ref="AF195:AF226" si="6">AVERAGE(L195:P195)</f>
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="AG195" s="3">
+        <f t="shared" ref="AG195:AG226" si="7">AVERAGE(E195:G195)</f>
+        <v>0.90133333333333321</v>
+      </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -19771,8 +21366,16 @@
       <c r="AE196">
         <v>1</v>
       </c>
+      <c r="AF196" s="3">
+        <f t="shared" si="6"/>
+        <v>0.67280000000000006</v>
+      </c>
+      <c r="AG196" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6113333333333334</v>
+      </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -19866,8 +21469,16 @@
       <c r="AE197">
         <v>0</v>
       </c>
+      <c r="AF197" s="3">
+        <f t="shared" si="6"/>
+        <v>0.63780000000000003</v>
+      </c>
+      <c r="AG197" s="3">
+        <f t="shared" si="7"/>
+        <v>0.57500000000000007</v>
+      </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -19961,8 +21572,16 @@
       <c r="AE198">
         <v>0</v>
       </c>
+      <c r="AF198" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7268</v>
+      </c>
+      <c r="AG198" s="3">
+        <f t="shared" si="7"/>
+        <v>0.66866666666666674</v>
+      </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -20056,8 +21675,16 @@
       <c r="AE199">
         <v>0</v>
       </c>
+      <c r="AF199" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7427999999999999</v>
+      </c>
+      <c r="AG199" s="3">
+        <f t="shared" si="7"/>
+        <v>0.68766666666666654</v>
+      </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -20151,8 +21778,16 @@
       <c r="AE200">
         <v>0</v>
       </c>
+      <c r="AF200" s="3">
+        <f t="shared" si="6"/>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="AG200" s="3">
+        <f t="shared" si="7"/>
+        <v>0.60799999999999998</v>
+      </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -20246,8 +21881,16 @@
       <c r="AE201">
         <v>0</v>
       </c>
+      <c r="AF201" s="3">
+        <f t="shared" si="6"/>
+        <v>0.62759999999999994</v>
+      </c>
+      <c r="AG201" s="3">
+        <f t="shared" si="7"/>
+        <v>0.4996666666666667</v>
+      </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -20341,8 +21984,16 @@
       <c r="AE202">
         <v>0</v>
       </c>
+      <c r="AF202" s="3">
+        <f t="shared" si="6"/>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AG202" s="3">
+        <f t="shared" si="7"/>
+        <v>0.43366666666666664</v>
+      </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -20436,8 +22087,16 @@
       <c r="AE203">
         <v>0</v>
       </c>
+      <c r="AF203" s="3">
+        <f t="shared" si="6"/>
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="AG203" s="3">
+        <f t="shared" si="7"/>
+        <v>0.68533333333333335</v>
+      </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -20531,8 +22190,16 @@
       <c r="AE204">
         <v>0</v>
       </c>
+      <c r="AF204" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78120000000000012</v>
+      </c>
+      <c r="AG204" s="3">
+        <f t="shared" si="7"/>
+        <v>0.73033333333333328</v>
+      </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -20626,8 +22293,16 @@
       <c r="AE205">
         <v>0</v>
       </c>
+      <c r="AF205" s="3">
+        <f t="shared" si="6"/>
+        <v>0.71399999999999986</v>
+      </c>
+      <c r="AG205" s="3">
+        <f t="shared" si="7"/>
+        <v>0.66466666666666663</v>
+      </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -20721,8 +22396,16 @@
       <c r="AE206">
         <v>0</v>
       </c>
+      <c r="AF206" s="3">
+        <f t="shared" si="6"/>
+        <v>0.73820000000000008</v>
+      </c>
+      <c r="AG206" s="3">
+        <f t="shared" si="7"/>
+        <v>0.67566666666666675</v>
+      </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -20816,8 +22499,16 @@
       <c r="AE207">
         <v>0</v>
       </c>
+      <c r="AF207" s="3">
+        <f t="shared" si="6"/>
+        <v>0.40359999999999996</v>
+      </c>
+      <c r="AG207" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -20911,8 +22602,16 @@
       <c r="AE208">
         <v>0</v>
       </c>
+      <c r="AF208" s="3">
+        <f t="shared" si="6"/>
+        <v>0.873</v>
+      </c>
+      <c r="AG208" s="3">
+        <f t="shared" si="7"/>
+        <v>0.87299999999999989</v>
+      </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -21006,8 +22705,16 @@
       <c r="AE209">
         <v>0</v>
       </c>
+      <c r="AF209" s="3">
+        <f t="shared" si="6"/>
+        <v>0.59739999999999993</v>
+      </c>
+      <c r="AG209" s="3">
+        <f t="shared" si="7"/>
+        <v>0.58299999999999996</v>
+      </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -21101,8 +22808,16 @@
       <c r="AE210">
         <v>0</v>
       </c>
+      <c r="AF210" s="3">
+        <f t="shared" si="6"/>
+        <v>0.495</v>
+      </c>
+      <c r="AG210" s="3">
+        <f t="shared" si="7"/>
+        <v>0.42499999999999999</v>
+      </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -21196,8 +22911,16 @@
       <c r="AE211">
         <v>1</v>
       </c>
+      <c r="AF211" s="3">
+        <f t="shared" si="6"/>
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="AG211" s="3">
+        <f t="shared" si="7"/>
+        <v>0.71666666666666667</v>
+      </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -21291,8 +23014,16 @@
       <c r="AE212">
         <v>0</v>
       </c>
+      <c r="AF212" s="3">
+        <f t="shared" si="6"/>
+        <v>0.82360000000000011</v>
+      </c>
+      <c r="AG212" s="3">
+        <f t="shared" si="7"/>
+        <v>0.79233333333333344</v>
+      </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -21386,8 +23117,16 @@
       <c r="AE213">
         <v>1</v>
       </c>
+      <c r="AF213" s="3">
+        <f t="shared" si="6"/>
+        <v>0.90620000000000012</v>
+      </c>
+      <c r="AG213" s="3">
+        <f t="shared" si="7"/>
+        <v>0.88133333333333341</v>
+      </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -21481,8 +23220,16 @@
       <c r="AE214">
         <v>0</v>
       </c>
+      <c r="AF214" s="3">
+        <f t="shared" si="6"/>
+        <v>0.48060000000000003</v>
+      </c>
+      <c r="AG214" s="3">
+        <f t="shared" si="7"/>
+        <v>0.40666666666666668</v>
+      </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -21576,8 +23323,16 @@
       <c r="AE215">
         <v>1</v>
       </c>
+      <c r="AF215" s="3">
+        <f t="shared" si="6"/>
+        <v>0.91560000000000008</v>
+      </c>
+      <c r="AG215" s="3">
+        <f t="shared" si="7"/>
+        <v>0.89133333333333331</v>
+      </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -21671,8 +23426,16 @@
       <c r="AE216">
         <v>0</v>
       </c>
+      <c r="AF216" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78160000000000007</v>
+      </c>
+      <c r="AG216" s="3">
+        <f t="shared" si="7"/>
+        <v>0.74933333333333341</v>
+      </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -21766,8 +23529,16 @@
       <c r="AE217">
         <v>0</v>
       </c>
+      <c r="AF217" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66860000000000008</v>
+      </c>
+      <c r="AG217" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6133333333333334</v>
+      </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -21861,8 +23632,16 @@
       <c r="AE218">
         <v>0</v>
       </c>
+      <c r="AF218" s="3">
+        <f t="shared" si="6"/>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="AG218" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -21956,8 +23735,16 @@
       <c r="AE219">
         <v>0</v>
       </c>
+      <c r="AF219" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG219" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -22051,8 +23838,16 @@
       <c r="AE220">
         <v>0</v>
       </c>
+      <c r="AF220" s="3">
+        <f t="shared" si="6"/>
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="AG220" s="3">
+        <f t="shared" si="7"/>
+        <v>0.68933333333333324</v>
+      </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -22146,8 +23941,16 @@
       <c r="AE221">
         <v>0</v>
       </c>
+      <c r="AF221" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66280000000000006</v>
+      </c>
+      <c r="AG221" s="3">
+        <f t="shared" si="7"/>
+        <v>0.60233333333333328</v>
+      </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -22241,8 +24044,16 @@
       <c r="AE222">
         <v>0</v>
       </c>
+      <c r="AF222" s="3">
+        <f t="shared" si="6"/>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="AG222" s="3">
+        <f t="shared" si="7"/>
+        <v>0.76300000000000001</v>
+      </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -22336,8 +24147,16 @@
       <c r="AE223">
         <v>0</v>
       </c>
+      <c r="AF223" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG223" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -22431,8 +24250,16 @@
       <c r="AE224">
         <v>0</v>
       </c>
+      <c r="AF224" s="3">
+        <f t="shared" si="6"/>
+        <v>0.50260000000000005</v>
+      </c>
+      <c r="AG224" s="3">
+        <f t="shared" si="7"/>
+        <v>0.46133333333333332</v>
+      </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -22526,8 +24353,16 @@
       <c r="AE225">
         <v>0</v>
       </c>
+      <c r="AF225" s="3">
+        <f t="shared" si="6"/>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="AG225" s="3">
+        <f t="shared" si="7"/>
+        <v>0.44133333333333336</v>
+      </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -22620,9 +24455,18 @@
       </c>
       <c r="AE226">
         <v>0</v>
+      </c>
+      <c r="AF226" s="3">
+        <f t="shared" si="6"/>
+        <v>0.47720000000000001</v>
+      </c>
+      <c r="AG226" s="3">
+        <f t="shared" si="7"/>
+        <v>0.42266666666666669</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Recortes/final_db.xlsx
+++ b/Recortes/final_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Martinelli\redesoc-conteiner\notebooks\Projeto-RedesSoc\Recortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D88A22F-486A-4E39-8EBF-48040D926ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F843AF70-1E84-4E22-A717-3AFDC30CB8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -878,6 +878,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1184,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,7 +1259,7 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
